--- a/biology/Botanique/Billbergia/Billbergia.xlsx
+++ b/biology/Botanique/Billbergia/Billbergia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Billbergia est un genre de plante de la famille des Bromeliaceae regroupant environ 65 espèces de plantes dont la plupart sont épiphytes.
 Il est originaire des régions tropicales d'Amérique depuis le Mexique jusqu'à l'Amérique du Sud mais la grande majorité est endémique du Brésil.
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anacyclia Hoffmanns. (1833).
 Eucallias Raf. (1838).
@@ -548,11 +562,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS :
-Billbergia pyramidalis (Sims) Lindl.
-Autres
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS :
+Billbergia pyramidalis (Sims) Lindl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Billbergia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Billbergia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Billbergia acreana H. Luther
 Billbergia alfonsi-joannis Reitz
 Billbergia amandae W.Weber
